--- a/Descargas/R15_1º Juzgado De Letras De San Carlos_Familia_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_1º Juzgado De Letras De San Carlos_Familia_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -231,13 +231,13 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos Aumento</t>
         </is>
       </c>
       <c r="B4" s="65">
@@ -247,57 +247,57 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos, Aumento</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Alimentos, Rebaja</t>
+          <t xml:space="preserve">Alimentos, Otros</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Alimentos, Rebaja</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Compensacion Economica</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B10" s="65">
@@ -307,17 +307,17 @@
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
+          <t xml:space="preserve">Declaracion De Susceptibilidad</t>
         </is>
       </c>
       <c r="B12" s="65">
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -341,17 +341,17 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
+          <t xml:space="preserve">Infracción A La Ley Penal</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -361,7 +361,7 @@
         </is>
       </c>
       <c r="B16" s="65">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B18" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B19" s="65">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -401,27 +401,37 @@
         </is>
       </c>
       <c r="B20" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
+        </is>
+      </c>
+      <c r="B22" s="65">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c t="inlineStr" r="A23">
+        <is>
           <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
-      <c r="B22" s="65">
-        <v>26</v>
+      <c r="B23" s="65">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
